--- a/docs/project_management/risks.xlsx
+++ b/docs/project_management/risks.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\Hochschule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D7B8F7-B3A1-4542-88FB-759A99BD0930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E114DB3-8795-4907-A713-BD6123F2C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B090D167-59B9-41A7-A7C8-1C96FB8D6461}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B090D167-59B9-41A7-A7C8-1C96FB8D6461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>Risikoanalyse</t>
   </si>
@@ -206,9 +203,6 @@
     <t>Iteration braucht länger als geplant</t>
   </si>
   <si>
-    <t>Meilenstein wird nicht im Zeitrahmen erreicht</t>
-  </si>
-  <si>
     <t>Austausch auch nach dem Wintersemester aufrechterhalten</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Möglichst an Iterationsplan halten</t>
   </si>
   <si>
-    <t>Aufgaben gleichmäßig aufteilen</t>
-  </si>
-  <si>
     <t>Projektdokumente nicht für alle verfügbar</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
   </si>
   <si>
     <t>Abschluss der Iteration verzögert sich</t>
-  </si>
-  <si>
-    <t>Meilenstein wird später erreicht</t>
   </si>
   <si>
     <t>Konsistenz</t>
@@ -366,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +379,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -632,11 +627,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -714,61 +710,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,13 +766,120 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFB4F4F"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9D9D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1139,64 +1188,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA75101-80C2-4233-A4B7-E89763D7F7FC}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="Z73" sqref="Z73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="69" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="70" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="25" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="70" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" style="25" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="70" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="25" customWidth="1"/>
+    <col min="25" max="26" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="49"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D2" s="56" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="66">
         <v>1</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="57" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="29">
-        <v>2</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="58" t="s">
+      <c r="H2" s="55">
+        <v>2</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="59" t="s">
+      <c r="K2" s="55">
+        <v>3</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="55">
         <v>4</v>
       </c>
-      <c r="O2" s="30"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="68">
+        <v>5</v>
+      </c>
+      <c r="R2" s="68"/>
+      <c r="S2" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="73">
+        <v>6</v>
+      </c>
+      <c r="U2" s="74"/>
+      <c r="V2" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="75">
+        <v>7</v>
+      </c>
+      <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1242,15 +1314,42 @@
       <c r="O3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:26" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1265,7 +1364,7 @@
       <c r="E4" s="6">
         <v>0.8</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="42">
         <f>Tabelle1!$E4*Tabelle1!$D4</f>
         <v>1.6</v>
       </c>
@@ -1293,22 +1392,52 @@
         <v>2</v>
       </c>
       <c r="N4" s="27">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="O4" s="25">
         <f>M4*N4</f>
-        <v>1.4</v>
-      </c>
-      <c r="P4" s="22" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="P4" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="R4" s="25">
+        <f>P4*Q4</f>
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="25">
+        <v>2</v>
+      </c>
+      <c r="T4" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="U4" s="25">
+        <f>S4*T4</f>
+        <v>0.6</v>
+      </c>
+      <c r="V4" s="25">
+        <v>2</v>
+      </c>
+      <c r="W4" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="X4" s="25">
+        <f>V4*W4</f>
+        <v>0.6</v>
+      </c>
+      <c r="Y4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:26" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1320,7 +1449,7 @@
       <c r="E5" s="6">
         <v>0.4</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="42">
         <f>Tabelle1!$E5*Tabelle1!$D5</f>
         <v>1.6</v>
       </c>
@@ -1341,7 +1470,7 @@
         <v>0.3</v>
       </c>
       <c r="L5" s="25">
-        <f t="shared" ref="L5:L34" si="1">J5*K5</f>
+        <f t="shared" ref="L5:L31" si="1">J5*K5</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="M5" s="25">
@@ -1351,19 +1480,49 @@
         <v>0.2</v>
       </c>
       <c r="O5" s="25">
-        <f t="shared" ref="O5:O34" si="2">M5*N5</f>
-        <v>0.4</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>59</v>
+        <f t="shared" ref="O5:O31" si="2">M5*N5</f>
+        <v>0.4</v>
+      </c>
+      <c r="P5" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="25">
+        <f t="shared" ref="R5:R33" si="3">P5*Q5</f>
+        <v>0.4</v>
+      </c>
+      <c r="S5" s="25">
+        <v>2</v>
+      </c>
+      <c r="T5" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="U5" s="25">
+        <f t="shared" ref="U5:U33" si="4">S5*T5</f>
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="25">
+        <v>2</v>
+      </c>
+      <c r="W5" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="25">
+        <f t="shared" ref="X5:X33" si="5">V5*W5</f>
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1532,7 @@
       <c r="E6" s="6">
         <v>0.75</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="42">
         <f>Tabelle1!$E6*Tabelle1!$D6</f>
         <v>2.25</v>
       </c>
@@ -1407,15 +1566,45 @@
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="25">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="S6" s="25">
+        <v>2</v>
+      </c>
+      <c r="T6" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="U6" s="25">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="V6" s="25">
+        <v>2</v>
+      </c>
+      <c r="W6" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="X6" s="25">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="19" t="s">
-        <v>60</v>
+      <c r="Z6" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+    <row r="7" spans="1:26" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1617,7 @@
       <c r="E7" s="6">
         <v>0.05</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="42">
         <f>Tabelle1!$E7*Tabelle1!$D7</f>
         <v>0.25</v>
       </c>
@@ -1462,15 +1651,45 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="78">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="R7" s="25">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="25">
+        <v>4</v>
+      </c>
+      <c r="T7" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="U7" s="25">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="V7" s="25">
+        <v>4</v>
+      </c>
+      <c r="W7" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="X7" s="25">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="19" t="s">
-        <v>61</v>
+      <c r="Z7" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:26" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1702,7 @@
       <c r="E8" s="6">
         <v>0.5</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="42">
         <f>Tabelle1!$E8*Tabelle1!$D8</f>
         <v>1</v>
       </c>
@@ -1517,15 +1736,23 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="Q8" s="43"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>56</v>
+      <c r="Z8" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+    <row r="9" spans="1:26" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1538,7 +1765,7 @@
       <c r="E9" s="6">
         <v>0.6</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="42">
         <f>Tabelle1!$E9*Tabelle1!$D9</f>
         <v>1.2</v>
       </c>
@@ -1572,15 +1799,45 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="25">
+        <v>2</v>
+      </c>
+      <c r="T9" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="U9" s="25">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="V9" s="25">
+        <v>2</v>
+      </c>
+      <c r="W9" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="X9" s="25">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="19" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="10" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+    <row r="10" spans="1:26" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
       <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1593,7 +1850,7 @@
       <c r="E10" s="6">
         <v>0.8</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="42">
         <f>Tabelle1!$E10*Tabelle1!$D10</f>
         <v>2.4000000000000004</v>
       </c>
@@ -1627,15 +1884,45 @@
         <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="25">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="S10" s="25">
+        <v>2</v>
+      </c>
+      <c r="T10" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="U10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="V10" s="25">
+        <v>2</v>
+      </c>
+      <c r="W10" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="X10" s="25">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="19" t="s">
-        <v>64</v>
+      <c r="Z10" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1648,7 +1935,7 @@
       <c r="E11" s="11">
         <v>0.7</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="42">
         <f>Tabelle1!$E11*Tabelle1!$D11</f>
         <v>1.4</v>
       </c>
@@ -1682,15 +1969,45 @@
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="81">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="R11" s="25">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="S11" s="26">
+        <v>2</v>
+      </c>
+      <c r="T11" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="26">
+        <v>2</v>
+      </c>
+      <c r="W11" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="19" t="s">
-        <v>65</v>
+      <c r="Z11" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
       <c r="B12" s="23" t="s">
         <v>26</v>
       </c>
@@ -1703,7 +2020,7 @@
       <c r="E12" s="6">
         <v>0.85</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="42">
         <f>Tabelle1!$E12*Tabelle1!$D12</f>
         <v>2.5499999999999998</v>
       </c>
@@ -1714,7 +2031,7 @@
         <v>0.9</v>
       </c>
       <c r="I12" s="25">
-        <f t="shared" ref="I12:I15" si="3">G12*H12</f>
+        <f t="shared" ref="I12:I15" si="6">G12*H12</f>
         <v>2.7</v>
       </c>
       <c r="J12" s="25">
@@ -1737,24 +2054,54 @@
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="81">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="25">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="S12" s="26">
+        <v>3</v>
+      </c>
+      <c r="T12" s="77">
+        <v>0.7</v>
+      </c>
+      <c r="U12" s="25">
+        <f t="shared" si="4"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="V12" s="26">
+        <v>3</v>
+      </c>
+      <c r="W12" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="X12" s="25">
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="Y12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="19" t="s">
-        <v>66</v>
+      <c r="Z12" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
       <c r="B13" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="61"/>
+        <v>93</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="25">
         <v>3</v>
       </c>
@@ -1762,7 +2109,7 @@
         <v>0.6</v>
       </c>
       <c r="I13" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J13" s="25">
@@ -1785,24 +2132,54 @@
         <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="R13" s="25">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="S13" s="26">
+        <v>1</v>
+      </c>
+      <c r="T13" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="U13" s="25">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="V13" s="26">
+        <v>1</v>
+      </c>
+      <c r="W13" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="X13" s="25">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="19" t="s">
-        <v>97</v>
+      <c r="Z13" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="4" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
       <c r="B14" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="61"/>
+        <v>96</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="25">
         <v>2</v>
       </c>
@@ -1810,7 +2187,7 @@
         <v>0.75</v>
       </c>
       <c r="I14" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="J14" s="25">
@@ -1833,24 +2210,54 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="81">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="25">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="S14" s="26">
+        <v>2</v>
+      </c>
+      <c r="T14" s="77">
+        <v>0.75</v>
+      </c>
+      <c r="U14" s="25">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="V14" s="26">
+        <v>2</v>
+      </c>
+      <c r="W14" s="77">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X14" s="25">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="19" t="s">
-        <v>100</v>
+      <c r="Z14" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="61"/>
+        <v>84</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="25">
         <v>2</v>
       </c>
@@ -1858,7 +2265,7 @@
         <v>0.7</v>
       </c>
       <c r="I15" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
       <c r="J15" s="25">
@@ -1881,15 +2288,45 @@
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="25">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="S15" s="25">
+        <v>2</v>
+      </c>
+      <c r="T15" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="U15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="V15" s="25">
+        <v>2</v>
+      </c>
+      <c r="W15" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="X15" s="25">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="50" t="s">
-        <v>87</v>
+      <c r="Z15" s="32" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:26" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1904,7 +2341,7 @@
       <c r="E16" s="6">
         <v>0.3</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="42">
         <f>Tabelle1!$E16*Tabelle1!$D16</f>
         <v>0.6</v>
       </c>
@@ -1938,15 +2375,45 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="25">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="S16" s="25">
+        <v>2</v>
+      </c>
+      <c r="T16" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="U16" s="25">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="V16" s="25">
+        <v>2</v>
+      </c>
+      <c r="W16" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="X16" s="25">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="19" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:26" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1959,7 +2426,7 @@
       <c r="E17" s="11">
         <v>0.15</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="44">
         <f>Tabelle1!$E17*Tabelle1!$D17</f>
         <v>0.75</v>
       </c>
@@ -1986,22 +2453,26 @@
       <c r="M17" s="26">
         <v>5</v>
       </c>
-      <c r="N17" s="28">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>69</v>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:26" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2012,7 +2483,7 @@
       <c r="E18" s="6">
         <v>0.1</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="42">
         <f>Tabelle1!$E18*Tabelle1!$D18</f>
         <v>0.30000000000000004</v>
       </c>
@@ -2046,15 +2517,45 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>59</v>
+      <c r="P18" s="69">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="R18" s="25">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="S18" s="25">
+        <v>3</v>
+      </c>
+      <c r="T18" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="U18" s="25">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V18" s="25">
+        <v>3</v>
+      </c>
+      <c r="W18" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="X18" s="25">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2566,7 @@
       <c r="E19" s="6">
         <v>0.1</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="42">
         <f>Tabelle1!$E19*Tabelle1!$D19</f>
         <v>0.30000000000000004</v>
       </c>
@@ -2099,15 +2600,45 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="P19" s="22" t="s">
+      <c r="P19" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="R19" s="25">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="S19" s="25">
+        <v>2</v>
+      </c>
+      <c r="T19" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="U19" s="25">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="V19" s="25">
+        <v>2</v>
+      </c>
+      <c r="W19" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="X19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="19" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="20" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+    <row r="20" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
       <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
@@ -2120,7 +2651,7 @@
       <c r="E20" s="6">
         <v>0.2</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="42">
         <f>Tabelle1!$E20*Tabelle1!$D20</f>
         <v>0.60000000000000009</v>
       </c>
@@ -2154,15 +2685,27 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="P20" s="22" t="s">
+      <c r="R20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="19" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="21" spans="1:17" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:26" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -2175,7 +2718,7 @@
       <c r="E21" s="6">
         <v>0.7</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="42">
         <f>Tabelle1!$E21*Tabelle1!$D21</f>
         <v>2.0999999999999996</v>
       </c>
@@ -2209,15 +2752,45 @@
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="P21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>57</v>
+      <c r="P21" s="69">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="R21" s="25">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S21" s="25">
+        <v>3</v>
+      </c>
+      <c r="T21" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="U21" s="25">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="V21" s="25">
+        <v>3</v>
+      </c>
+      <c r="W21" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="X21" s="25">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Y21" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2232,7 +2805,7 @@
       <c r="E22" s="6">
         <v>0.15</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="42">
         <f>Tabelle1!$E22*Tabelle1!$D22</f>
         <v>0.3</v>
       </c>
@@ -2266,18 +2839,48 @@
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="P22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="69">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="R22" s="25">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="S22" s="25">
+        <v>1</v>
+      </c>
+      <c r="T22" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="U22" s="25">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="V22" s="25">
+        <v>1</v>
+      </c>
+      <c r="W22" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="X22" s="25">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
         <v>3</v>
@@ -2285,7 +2888,7 @@
       <c r="E23" s="6">
         <v>0.1</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="42">
         <f>Tabelle1!$E23*Tabelle1!$D23</f>
         <v>0.30000000000000004</v>
       </c>
@@ -2319,13 +2922,43 @@
         <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P23" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="69">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="R23" s="25">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="S23" s="25">
+        <v>3</v>
+      </c>
+      <c r="T23" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="U23" s="25">
+        <f>S23*T23</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="V23" s="25">
+        <v>3</v>
+      </c>
+      <c r="W23" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="X23" s="25">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="Y23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
       <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2967,79 @@
         <v>3</v>
       </c>
       <c r="E24" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F24" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="42">
         <f>Tabelle1!$E24*Tabelle1!$D24</f>
-        <v>0.44999999999999996</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G24" s="25">
         <v>3</v>
       </c>
       <c r="H24" s="27">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I24" s="25">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J24" s="25">
         <v>3</v>
       </c>
       <c r="K24" s="27">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="L24" s="25">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M24" s="25">
         <v>3</v>
       </c>
       <c r="N24" s="27">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="19"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="P24" s="69">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="25">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="S24" s="25">
+        <v>3</v>
+      </c>
+      <c r="T24" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="U24" s="25">
+        <f t="shared" si="4"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="V24" s="25">
+        <v>4</v>
+      </c>
+      <c r="W24" s="70">
+        <v>0.15</v>
+      </c>
+      <c r="X24" s="25">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
       <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
@@ -2387,7 +3050,7 @@
       <c r="E25" s="6">
         <v>0.1</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="42">
         <f>Tabelle1!$E25*Tabelle1!$D25</f>
         <v>0.4</v>
       </c>
@@ -2421,20 +3084,50 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="69">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="25">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="S25" s="25">
+        <v>4</v>
+      </c>
+      <c r="T25" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="U25" s="25">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="V25" s="25">
+        <v>4</v>
+      </c>
+      <c r="W25" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="X25" s="25">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="19" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="26" spans="1:17" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:26" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
       <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
@@ -2442,7 +3135,7 @@
       <c r="E26" s="12">
         <v>0.4</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="45">
         <f>Tabelle1!$E26*Tabelle1!$D26</f>
         <v>1.2000000000000002</v>
       </c>
@@ -2476,20 +3169,50 @@
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>76</v>
+      <c r="P26" s="69">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="R26" s="25">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S26" s="25">
+        <v>3</v>
+      </c>
+      <c r="T26" s="70">
+        <v>0.15</v>
+      </c>
+      <c r="U26" s="25">
+        <f t="shared" si="4"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="V26" s="25">
+        <v>3</v>
+      </c>
+      <c r="W26" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="X26" s="25">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:26" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
       <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="9">
         <v>3</v>
@@ -2497,7 +3220,7 @@
       <c r="E27" s="13">
         <v>0.15</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="45">
         <f>Tabelle1!$E27*Tabelle1!$D27</f>
         <v>0.44999999999999996</v>
       </c>
@@ -2508,7 +3231,7 @@
         <v>0.05</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" ref="I27:I28" si="4">G27*H27</f>
+        <f t="shared" ref="I27:I28" si="7">G27*H27</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="J27" s="25">
@@ -2531,24 +3254,54 @@
         <f t="shared" si="2"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="P27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>58</v>
+      <c r="P27" s="69">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="70">
+        <v>0.06</v>
+      </c>
+      <c r="R27" s="25">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="S27" s="25">
+        <v>3</v>
+      </c>
+      <c r="T27" s="70">
+        <v>0.06</v>
+      </c>
+      <c r="U27" s="25">
+        <f t="shared" si="4"/>
+        <v>0.18</v>
+      </c>
+      <c r="V27" s="25">
+        <v>3</v>
+      </c>
+      <c r="W27" s="70">
+        <v>0.06</v>
+      </c>
+      <c r="X27" s="25">
+        <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:26" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="62"/>
       <c r="B28" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="64"/>
+        <v>99</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="25">
         <v>2</v>
       </c>
@@ -2556,7 +3309,7 @@
         <v>0.7</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="J28" s="25">
@@ -2579,22 +3332,31 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="P28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>103</v>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z28" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:26" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -2602,7 +3364,7 @@
       <c r="E29" s="14">
         <v>0.65</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="45">
         <f>Tabelle1!$E29*Tabelle1!$D29</f>
         <v>1.3</v>
       </c>
@@ -2636,20 +3398,50 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="R29" s="25">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="S29" s="25">
+        <v>2</v>
+      </c>
+      <c r="T29" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="U29" s="25">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="V29" s="25">
+        <v>2</v>
+      </c>
+      <c r="W29" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="X29" s="25">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q29" s="17" t="s">
+      <c r="Z29" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -2657,7 +3449,7 @@
       <c r="E30" s="14">
         <v>0.3</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="45">
         <f>Tabelle1!$E30*Tabelle1!$D30</f>
         <v>0.6</v>
       </c>
@@ -2691,20 +3483,50 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="P30" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>82</v>
+      <c r="P30" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="R30" s="25">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="S30" s="25">
+        <v>2</v>
+      </c>
+      <c r="T30" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="U30" s="25">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="V30" s="25">
+        <v>2</v>
+      </c>
+      <c r="W30" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="X30" s="25">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z30" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:26" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
       <c r="B31" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -2712,7 +3534,7 @@
       <c r="E31" s="14">
         <v>0.8</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="45">
         <f>Tabelle1!$E31*Tabelle1!$D31</f>
         <v>0.8</v>
       </c>
@@ -2746,165 +3568,182 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="69">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="R31" s="25">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="S31" s="25">
+        <v>1</v>
+      </c>
+      <c r="T31" s="70">
+        <v>0.8</v>
+      </c>
+      <c r="U31" s="25">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="V31" s="25">
+        <v>1</v>
+      </c>
+      <c r="W31" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="X31" s="25">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q31" s="17" t="s">
-        <v>83</v>
+      <c r="Z31" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:26" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
       <c r="B32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="F32" s="63">
-        <f>Tabelle1!$E32*Tabelle1!$D32</f>
-        <v>1.6</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I32" s="25">
-        <f t="shared" ref="I32:I34" si="5">G32*H32</f>
-        <v>1.6</v>
+        <f t="shared" ref="I32" si="8">G32*H32</f>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J32" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="27">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L32" s="25">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
+        <f t="shared" ref="L32" si="9">J32*K32</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="M32" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" s="27">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O32" s="25">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>84</v>
+        <f t="shared" ref="O32:O33" si="10">M32*N32</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="P32" s="69">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="R32" s="25">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="S32" s="25">
+        <v>3</v>
+      </c>
+      <c r="T32" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="U32" s="25">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="V32" s="25">
+        <v>3</v>
+      </c>
+      <c r="W32" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="X32" s="25">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z32" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
       <c r="B33" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="25">
+        <v>5</v>
+      </c>
+      <c r="N33" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="25">
-        <v>3</v>
-      </c>
-      <c r="H33" s="27">
-        <v>0.7</v>
-      </c>
-      <c r="I33" s="25">
-        <f t="shared" ref="I33" si="6">G33*H33</f>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="J33" s="25">
-        <v>3</v>
-      </c>
-      <c r="K33" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="L33" s="25">
-        <f t="shared" ref="L33" si="7">J33*K33</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="M33" s="25">
-        <v>3</v>
-      </c>
-      <c r="N33" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="O33" s="25">
-        <f t="shared" ref="O33:O34" si="8">M33*N33</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="25">
-        <v>5</v>
-      </c>
-      <c r="N34" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="O34" s="25">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>106</v>
+      <c r="Z33" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E6">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2912,7 +3751,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2920,7 +3759,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2931,107 +3770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F11 F15:F26 F34 F28:F31">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I11 I15:I26 I34 I28:I31 L4:L32 O4:O32 O34 L34">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F14">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14 L12:L14 O12:O14">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32 I32 O32">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I26 I28:I32 L4:L32 O4:O32 O34 L34 I34">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27 L27 O27">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27 O27">
+  <conditionalFormatting sqref="L32">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3041,113 +3780,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I32 L4:L32 O4:O32 O34 L34 I34">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F32 F34">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33 L33 O33">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33 L33 O33">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33 L33 O33">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F32">
+  <conditionalFormatting sqref="I4:I34 L4:L30 F4:F30 O4:O16 L33 F32:F33 R4:R7 U4:U7 X4:X7 X9:X16 U9:U16 R9:R16 R18:R27 U18:U27 X18:X27 O18:O33 N17:X17 X29:X33 U29:U33 R29:R33 P28:X28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FFFF7C80"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I33">
+  <conditionalFormatting sqref="F4:F33 I4:I33 L4:L33 O4:O16 R4:R7 U4:U7 X4:X7 X9:X16 U9:U16 R9:R16 R18:R27 U18:U27 X18:X27 O18:O33 N17:X17 X29:X33 U29:U33 R29:R33 P28:X28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FFFB4F4F"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L33">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FFFF7C80"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O34">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FFFB4F4F"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/docs/project_management/risks.xlsx
+++ b/docs/project_management/risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3653d507f08c1b/Studium-Computer-von-Ludwig/Software Engineering II/Beleg/I5_GPS_Tracks/docs/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0E114DB3-8795-4907-A713-BD6123F2C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F922D378-FF41-4492-AAA3-B0707220CDCD}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{0E114DB3-8795-4907-A713-BD6123F2C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE490CAB-729E-4730-87C8-3C5B15C8AA28}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B090D167-59B9-41A7-A7C8-1C96FB8D6461}"/>
   </bookViews>
@@ -841,6 +841,18 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,18 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,15 +1220,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA75101-80C2-4233-A4B7-E89763D7F7FC}">
   <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="8" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="9" customWidth="1"/>
@@ -1240,73 +1240,73 @@
     <col min="24" max="25" width="10.7109375" style="2" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" style="9" customWidth="1"/>
     <col min="27" max="27" width="10.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="37.85546875" customWidth="1"/>
-    <col min="29" max="29" width="60" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" customWidth="1"/>
+    <col min="29" max="29" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="82">
         <v>1</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="86">
-        <v>2</v>
-      </c>
-      <c r="I2" s="87"/>
+      <c r="H2" s="90">
+        <v>2</v>
+      </c>
+      <c r="I2" s="91"/>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="86">
-        <v>3</v>
-      </c>
-      <c r="L2" s="87"/>
+      <c r="K2" s="90">
+        <v>3</v>
+      </c>
+      <c r="L2" s="91"/>
       <c r="M2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="86">
+      <c r="N2" s="90">
         <v>4</v>
       </c>
-      <c r="O2" s="87"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="83">
+      <c r="Q2" s="87">
         <v>5</v>
       </c>
-      <c r="R2" s="83"/>
+      <c r="R2" s="87"/>
       <c r="S2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="79">
         <v>6</v>
       </c>
-      <c r="U2" s="76"/>
+      <c r="U2" s="80"/>
       <c r="V2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="79">
         <v>7</v>
       </c>
-      <c r="X2" s="76"/>
+      <c r="X2" s="80"/>
       <c r="Y2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="74">
+      <c r="Z2" s="78">
         <v>8</v>
       </c>
-      <c r="AA2" s="74"/>
+      <c r="AA2" s="78"/>
     </row>
     <row r="3" spans="1:37" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -1397,8 +1397,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+    <row r="4" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -1495,8 +1495,8 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="85" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -1579,7 +1579,7 @@
         <v>0.15</v>
       </c>
       <c r="AA5" s="18">
-        <f t="shared" ref="AA5:AA33" si="5">Y5*Z5</f>
+        <f t="shared" ref="AA5:AA32" si="5">Y5*Z5</f>
         <v>0.3</v>
       </c>
       <c r="AB5" s="41" t="s">
@@ -1590,8 +1590,8 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="24" t="s">
         <v>20</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="AK8" s="17"/>
     </row>
     <row r="9" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="41" t="s">
         <v>46</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="24" t="s">
         <v>26</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="24" t="s">
         <v>92</v>
       </c>
@@ -2313,8 +2313,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:37" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
       <c r="B14" s="24" t="s">
         <v>95</v>
       </c>
@@ -2401,8 +2401,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:37" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
       <c r="B15" s="24" t="s">
         <v>83</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
     </row>
     <row r="16" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="88" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -2587,7 +2587,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="41" t="s">
         <v>32</v>
       </c>
@@ -2640,16 +2640,16 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="90" t="s">
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="AC17" s="88" t="s">
+      <c r="AC17" s="74" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="24" t="s">
         <v>33</v>
       </c>
@@ -2734,7 +2734,7 @@
         <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="AB18" s="89" t="s">
+      <c r="AB18" s="75" t="s">
         <v>78</v>
       </c>
       <c r="AC18" s="25" t="s">
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="24" t="s">
         <v>34</v>
       </c>
@@ -2834,8 +2834,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+    <row r="20" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
       <c r="B20" s="24" t="s">
         <v>35</v>
       </c>
@@ -2913,8 +2913,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+    <row r="21" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="88"/>
       <c r="B21" s="24" t="s">
         <v>36</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="89" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="24" t="s">
@@ -3104,7 +3104,7 @@
       <c r="AC22" s="25"/>
     </row>
     <row r="23" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="24" t="s">
         <v>43</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="AC23" s="25"/>
     </row>
     <row r="24" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="24" t="s">
         <v>44</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="AC24" s="25"/>
     </row>
     <row r="25" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="24" t="s">
         <v>45</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="24" t="s">
         <v>48</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="18" t="s">
         <v>49</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="18" t="s">
         <v>98</v>
       </c>
@@ -3631,7 +3631,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -3727,8 +3727,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+    <row r="30" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81"/>
       <c r="B30" s="53" t="s">
         <v>53</v>
       </c>
@@ -3823,7 +3823,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="54" t="s">
         <v>54</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="54" t="s">
         <v>87</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="54" t="s">
         <v>101</v>
       </c>
